--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1551934.117677858</v>
+        <v>1590911.665316745</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>278692.0725916855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6432665.747860951</v>
+        <v>6520540.746204891</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>326.8753561036519</v>
       </c>
       <c r="D2" t="n">
-        <v>377.9647308011905</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.355512532834</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>89.0528306776219</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827832</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>289.1502351296636</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.93390106101495</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>148.0971233201847</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>282.7374119490113</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>302.5794985835474</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>159.0870598415701</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1424,10 +1424,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V11" t="n">
-        <v>90.97964783088935</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>116.3527098704435</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1537,7 +1537,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>146.8581123645739</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>163.5395542426784</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>28.46824604904448</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>35.51678257079766</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>39.88404672001457</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>94.21878984361651</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800047</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>152.5168019860644</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225779</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2327,7 +2327,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948834</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2476,25 +2476,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>126.7641785672306</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,10 +2767,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>172.6623007436918</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.990622819018972</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3007,13 +3007,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>139.9514671241869</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225808</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3427,16 +3427,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>32.98066327132541</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>43.48898701015904</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>84.71997427496126</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>344.5576664477287</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3749,7 +3749,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>24.34318456170574</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394251</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093073</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>206.8981232563532</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>172.6623007436963</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>503.8064494671689</v>
+        <v>846.6806259663152</v>
       </c>
       <c r="C2" t="n">
-        <v>469.7043806909962</v>
+        <v>516.503498588889</v>
       </c>
       <c r="D2" t="n">
         <v>87.92182432615731</v>
@@ -4331,49 +4331,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>949.4537989923044</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>934.3517396120192</v>
+        <v>1277.225916111166</v>
       </c>
       <c r="Y2" t="n">
-        <v>526.0656159116726</v>
+        <v>868.939792410819</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,22 +4489,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>728.7550221176472</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1585.813254565969</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>1340.421499899382</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.8381257054811</v>
+        <v>1113.00182921349</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.680625966315</v>
+        <v>1379.860631332894</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035833</v>
+        <v>1345.758562556722</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>909.8487777311661</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>476.0740328894614</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.2470073390731</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2229.548384898434</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111165</v>
+        <v>1810.405921477745</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1806.160201817802</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.89710401677496</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2362.377960771848</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2116.498514350304</v>
       </c>
       <c r="U7" t="n">
-        <v>1259.509060631519</v>
+        <v>1838.065513603409</v>
       </c>
       <c r="V7" t="n">
-        <v>972.5535525019498</v>
+        <v>1551.110005473839</v>
       </c>
       <c r="W7" t="n">
-        <v>700.5271480882413</v>
+        <v>1279.083601060131</v>
       </c>
       <c r="X7" t="n">
-        <v>455.1353934216538</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="Y7" t="n">
-        <v>227.7157227357621</v>
+        <v>1129.490547201358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>945.0851728516207</v>
+        <v>1236.873845124191</v>
       </c>
       <c r="C8" t="n">
-        <v>516.503498588889</v>
+        <v>798.731372307614</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>362.8215874820585</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1391.547572925319</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>1390.732522376756</v>
+        <v>2086.56159868973</v>
       </c>
       <c r="X8" t="n">
-        <v>1375.630462996471</v>
+        <v>1667.419135269041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1371.384743336529</v>
+        <v>1663.173415609098</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2523.388791302762</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.836108510712</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776222</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T13" t="n">
-        <v>2554.154217881911</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U13" t="n">
-        <v>2275.721217135016</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V13" t="n">
-        <v>1988.765709005447</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987277</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819526</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834753</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881912</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583903</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503607</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177149</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.805766429521</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612944</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548909</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781548</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315497</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068553</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.51554725239</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4805.228631373588</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.006328690604</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.389378624431</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.533924035464</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.391460614775</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.105336914428</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.1480597494547</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>699.5863482326797</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>533.7083554342024</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>363.9503516849397</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>187.2432976466957</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745701</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2620.072463532639</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2374.193017111094</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2095.760016364199</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1808.80450823463</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1536.778103820921</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1291.386349154334</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1063.966678468442</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5762,19 +5762,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5826,10 +5826,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5923,37 +5923,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752037</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832885</v>
+        <v>1907.652494875573</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795277</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109385</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6032,7 +6032,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937638</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>790.3368563937638</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>624.4588635952865</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>624.4588635952865</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.155475112751</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>525.9458847132731</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1601.005850966132</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,10 +6300,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405615</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420841</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928213</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2712.869316012954</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2553.62794731095</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2307.748500889406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2029.315500142511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376324</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6917,70 +6917,70 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423626</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993932</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827329</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6993,16 +6993,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903953</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736203</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>632.556342075143</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258802</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0912842876364</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
         <v>242.1630145804051</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109383</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771584</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004222</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7184,40 +7184,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993931</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827328</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785922</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912871</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846697</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7230,16 +7230,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7251,7 +7251,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1090.187678435287</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>917.6259669185116</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>751.7479741200345</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>581.9899703707717</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799019</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057296</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2313.799635050031</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>2026.844126920462</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1754.817722506753</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1509.425967840165</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1282.006297154274</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638993</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.58362889654</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640434</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.53103441083</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981136</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814532</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773127</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526184</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710021</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583059</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900076</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833903</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244936</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824247</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123901</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>809.9073059481369</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>637.3455944313621</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>471.4676016328847</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>301.7095978836219</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>125.002543845378</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>125.002543845378</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663493</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343103</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.83170973132</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.952263309776</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2033.519262562881</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V43" t="n">
-        <v>1746.563754433312</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1474.537350019603</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1229.145595353016</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1001.725924667124</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872687</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.2639626146349</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111513</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>199.0316880464614</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>199.0316880464614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>199.0316880464614</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1356.079523257012</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693459</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263765</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097161</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055757</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4544.158956950349</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950349</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776221</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777442</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284814</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902376</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365819</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523464</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749245</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719587</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.39558658392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289292</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587288</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165743</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2112.450585778171</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2112.450585778171</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1840.424181364463</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1595.032426697875</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>58.38468441396117</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N4" t="n">
-        <v>384.4104887602591</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8377,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>777.2195123312626</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.4096169964323</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>-5.35127896428318e-13</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288023</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>103.3290013791377</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>268.0111327346224</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>54.48338453116385</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>122.4480280049975</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>268.0111327346215</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>248.5691704774762</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>177.9825081356772</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>63.4301651713668</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>37.38363054573284</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627255</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>48.17580493063078</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>102.9863699957339</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.21302026266328</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627252</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>90.22000922290005</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.20338164068218</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1599680048235</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>208.2197249473431</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>10.96843159933859</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.9863699957294</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>547272.223274553</v>
+        <v>555727.1048900698</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>547272.223274553</v>
+        <v>557249.4249206869</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544464.6086003026</v>
+        <v>567441.6372527587</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>544464.6086003027</v>
+        <v>567441.6372527587</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>552147.533747451</v>
+        <v>567441.6372527587</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>567441.6372527587</v>
+        <v>567441.6372527586</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>559758.7121056103</v>
+        <v>567441.6372527587</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544464.6086003026</v>
+        <v>567441.6372527587</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="C2" t="n">
-        <v>415514.1729150664</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="D2" t="n">
         <v>415514.1729150666</v>
       </c>
       <c r="E2" t="n">
-        <v>391781.0209280491</v>
+        <v>408314.627706448</v>
       </c>
       <c r="F2" t="n">
-        <v>391781.0209280492</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="G2" t="n">
-        <v>397309.4321605104</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26347,13 +26347,13 @@
         <v>408314.627706448</v>
       </c>
       <c r="N2" t="n">
+        <v>408314.6277064479</v>
+      </c>
+      <c r="O2" t="n">
         <v>408314.627706448</v>
       </c>
-      <c r="O2" t="n">
-        <v>402786.2164739867</v>
-      </c>
       <c r="P2" t="n">
-        <v>391781.0209280492</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850446</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996339</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830676</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940156</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.490199087</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908699</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="G4" t="n">
-        <v>53091.23475128189</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
+        <v>54561.82510962277</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="I4" t="n">
-        <v>54561.82510962281</v>
-      </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>53823.08055742785</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>52352.49019908703</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.344800242</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319799</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20201.40446696996</v>
+        <v>20201.40446696984</v>
       </c>
       <c r="C6" t="n">
-        <v>162392.7051266796</v>
+        <v>121989.1594180325</v>
       </c>
       <c r="D6" t="n">
-        <v>162392.7051266798</v>
+        <v>181763.8585575367</v>
       </c>
       <c r="E6" t="n">
-        <v>31554.16642927723</v>
+        <v>93656.23043060032</v>
       </c>
       <c r="F6" t="n">
-        <v>265909.1884513147</v>
+        <v>276011.3396516501</v>
       </c>
       <c r="G6" t="n">
-        <v>262965.6415661361</v>
+        <v>276011.3396516501</v>
       </c>
       <c r="H6" t="n">
-        <v>263631.8090110694</v>
+        <v>276011.3396516501</v>
       </c>
       <c r="I6" t="n">
-        <v>276034.5639910327</v>
+        <v>276011.33965165</v>
       </c>
       <c r="J6" t="n">
-        <v>165020.0986460425</v>
+        <v>164996.8743066599</v>
       </c>
       <c r="K6" t="n">
-        <v>276034.5639910328</v>
+        <v>222965.4850128777</v>
       </c>
       <c r="L6" t="n">
-        <v>276034.5639910327</v>
+        <v>266619.0379250276</v>
       </c>
       <c r="M6" t="n">
-        <v>80433.38470796516</v>
+        <v>123811.1687136624</v>
       </c>
       <c r="N6" t="n">
-        <v>276034.5639910328</v>
+        <v>276011.33965165</v>
       </c>
       <c r="O6" t="n">
-        <v>272648.8998333609</v>
+        <v>276011.33965165</v>
       </c>
       <c r="P6" t="n">
-        <v>265909.1884513146</v>
+        <v>276011.33965165</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319862</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760685</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319862</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760685</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>106.885691984759</v>
       </c>
       <c r="D2" t="n">
-        <v>53.58595617610939</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.54491999896322</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>180.2533096919495</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945167</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>111.6566649134134</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>168.9021933405924</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>94.84071379973693</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>146.6995854442764</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>56.41128198196435</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.81337269022711</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30672,7 +30672,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>5.655920176650397e-13</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34720,7 +34720,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>58.38468441396117</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N4" t="n">
-        <v>384.4104887602591</v>
-      </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35097,22 +35097,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>777.2195123312626</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512975</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.4096169964323</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080456</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512975</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>-1.607610910837077e-13</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.4542274390807</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288023</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908071</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>103.3290013791377</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645634</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
